--- a/medicine/Psychotrope/Fariña_(série_télévisée)/Fariña_(série_télévisée).xlsx
+++ b/medicine/Psychotrope/Fariña_(série_télévisée)/Fariña_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fari%C3%B1a_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Fariña_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fariña est une série espagnole créée par Bambú Producciones pour Atresmedia. 
-La série est basée sur le livre du journaliste Nacho Carretero (es) Fariña_(libro) (es) (farine, cocaïne en argot galicien). Elle a été diffusée à partir du 28 février 2018 sur Antena 3. La série suit Javier Rey alias Sito Miñanco (es), un trafiquant de drogue galicien[1]. Le 3 août 2018, la série a été diffusée à l'échelle internationale dans certains pays sur Netflix sous le titre Cocaine Coast[2].Elle est disponible en France sur la plate-forme amazon prime vidéo.
+La série est basée sur le livre du journaliste Nacho Carretero (es) Fariña_(libro) (es) (farine, cocaïne en argot galicien). Elle a été diffusée à partir du 28 février 2018 sur Antena 3. La série suit Javier Rey alias Sito Miñanco (es), un trafiquant de drogue galicien. Le 3 août 2018, la série a été diffusée à l'échelle internationale dans certains pays sur Netflix sous le titre Cocaine Coast.Elle est disponible en France sur la plate-forme amazon prime vidéo.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fari%C3%B1a_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Fariña_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sito Miñanco, un pêcheur très bon navigateur, commence à travailler dans la contrebande de tabac. Cercle dirigé par Vicente Otero Pérez Terito, le chef des clans du Ría de Arousa en Galice. 
 Puis Miñanco lance son propre clan en compagnie de deux amis. Les différents clans envisagent de commencer le trafic de haschich, mais Terito est contre le trafic de drogues illicites. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fari%C3%B1a_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Fariña_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rôles principaux
-Javier Rey : Sito Miñanco (es). Personnage existant. (chef du clan ROS puis du clan Miñanco)
+          <t>Rôles principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Javier Rey : Sito Miñanco (es). Personnage existant. (chef du clan ROS puis du clan Miñanco)
 Tristán_Ulloa :  sergent Darío Castro. Personnage inspiré d'Enrique León Calviño (gl)
 Antonio Durán ''Morris'' (es) : Manuel_Charlín (es). Personnage existant. (chef du clan charlines)
 Carlos Blanco Vila : Laureano Oubiña (es) Personnage existant. (chef du clan Oubiña)
@@ -562,15 +581,83 @@
 Monti Castiñeiras (es) : Luis Colón « Colombo ». Personnage inspiré de Luís Falcón « Falconetti » (chef du clan Falconetti)
 Alfonso Agra (es) : Manuel Bustelo. Personnage inspiré de Manuel Baúlo (chef du clan Caneos)
 Carlos Sante Varela (gl) : Modesto Loval. Personnage inspiré de Marcial Dorado (chef du clan Dorado)
-Miquel Fernández García (gl) : juge Xuíz Baltasar Garzón. Personnage existant.
-Collaborations spéciales
-Jana Pérez (gl) : Camila Reyes. Personnage inspiré d' Odalys Rivera[3] (seconde épouse de Sito Miñanco)
+Miquel Fernández García (gl) : juge Xuíz Baltasar Garzón. Personnage existant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fariña_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fari%C3%B1a_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Rôles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Collaborations spéciales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jana Pérez (gl) : Camila Reyes. Personnage inspiré d' Odalys Rivera (seconde épouse de Sito Miñanco)
 Celso Bugallo : père de Sito
 Juan Pablo Shuk (es) : José Nelson Matta Ballesteros. Personnage existant.
 Marta Larralde : Nieves. Personnage inspiré de Rosa Pouso (première épouse de Sito Miñanco)
-Nancho Novo (gl) : Xuíz
-Rôles récurrents
-Mela Casal (gl) : mère de Sito
+Nancho Novo (gl) : Xuíz</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fariña_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fari%C3%B1a_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Rôles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Rôles récurrents</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mela Casal (gl) : mère de Sito
 Patricia Vázquez (gl) : Ana María. Personnage inspiré de Rosa María Carro Otero (première épouse de Laureano Oubiña)
 Luisa Merelas (gl) : Amelia. Personnage inspiré de Josefa Pomares Martínez (épouse de Manuel Charlín)
 Cristina Iglesias : Leticia Charlín. Personnage inspiré de Yolanda Charlin (nièce de Manuel Charlín et amante de Daniel Baúlo)
@@ -597,7 +684,7 @@
 Evaristo Calvo (gl) : Ministro. Personnage inspiré de Miguel Boyer
 Ernesto Chao (gl): Xerardo Fernández Albor, premier président de la Junte de Galice
 Harlys Becerra (es) : Jorge Luis Ochoa (cartel de Medellin)
-Mario Bolaños : Elder Campos le chauve[4]
+Mario Bolaños : Elder Campos le chauve
 Jason Trigueros : Gilberto Rodríguez Orejuela (cartel de Cali)
 Iolanda Muíños (gl) : Carmen Avendaño (gl)
 Xoel Fernández (gl) : Xulio Braña
@@ -611,31 +698,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fari%C3%B1a_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fariña_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fari%C3%B1a_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
